--- a/results/comparaison/WM/diattenuation/mean_raw_data.xlsx
+++ b/results/comparaison/WM/diattenuation/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,55 +682,55 @@
         <v>0.0225454145834253</v>
       </c>
       <c r="C2">
+        <v>0.0217055177332401</v>
+      </c>
+      <c r="D2">
         <v>0.0235564904853853</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0216734006416167</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.0122307834747656</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0.0235026561829768</v>
+      </c>
+      <c r="H2">
         <v>0.0180308012531789</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.0250778124670131</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.0161819551492165</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.0241443198386907</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.024211162116408</v>
-      </c>
-      <c r="K2">
-        <v>0.0189743512811155</v>
-      </c>
-      <c r="L2">
-        <v>0.0220278543796534</v>
       </c>
       <c r="M2">
         <v>0.0202801493841615</v>
       </c>
       <c r="N2">
+        <v>0.0189743512811155</v>
+      </c>
+      <c r="O2">
+        <v>0.0220278543796534</v>
+      </c>
+      <c r="P2">
         <v>0.0193771483482221</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.0226422471847206</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.0145128209467846</v>
       </c>
-      <c r="Q2">
-        <v>0.0215338506785962</v>
-      </c>
-      <c r="R2">
-        <v>0.0196207237293216</v>
-      </c>
       <c r="S2">
-        <v>0.019567724305862</v>
+        <v>0.0193007497190419</v>
       </c>
       <c r="T2">
         <v>0.0200198376729222</v>
@@ -742,259 +754,304 @@
         <v>0.013478140231229</v>
       </c>
       <c r="AA2">
-        <v>0.0303988098113719</v>
+        <v>0.0233936415152081</v>
       </c>
       <c r="AB2">
-        <v>0.0159169242119081</v>
+        <v>0.026170061386912</v>
       </c>
       <c r="AC2">
-        <v>0.0203801901847168</v>
+        <v>0.0207328186425285</v>
       </c>
       <c r="AD2">
-        <v>0.0199907845111915</v>
+        <v>0.0211464983286296</v>
       </c>
       <c r="AE2">
+        <v>0.0391301347105895</v>
+      </c>
+      <c r="AF2">
+        <v>0.0143425587140308</v>
+      </c>
+      <c r="AG2">
+        <v>0.0173751178691323</v>
+      </c>
+      <c r="AH2">
+        <v>0.019522315750866</v>
+      </c>
+      <c r="AI2">
+        <v>0.0122157871528771</v>
+      </c>
+      <c r="AJ2">
+        <v>0.0140052460627682</v>
+      </c>
+      <c r="AK2">
         <v>0.0211176437817701</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
+        <v>0.0227886360408488</v>
+      </c>
+      <c r="AM2">
         <v>0.0158102682653865</v>
       </c>
-      <c r="AG2">
-        <v>0.0246441285461413</v>
-      </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>0.0174479177092877</v>
       </c>
-      <c r="AI2">
-        <v>0.0211090417180589</v>
-      </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>0.0173923679780152</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>0.0342706245480699</v>
+      </c>
+      <c r="AQ2">
+        <v>0.0305813569704388</v>
+      </c>
+      <c r="AR2">
         <v>0.0165610314123887</v>
       </c>
-      <c r="AL2">
-        <v>0.0207328186425285</v>
-      </c>
-      <c r="AM2">
-        <v>0.022894738655095</v>
-      </c>
-      <c r="AN2">
-        <v>0.0248414527596814</v>
-      </c>
-      <c r="AO2">
-        <v>0.0220081534627695</v>
-      </c>
-      <c r="AP2">
-        <v>0.0263625863209767</v>
-      </c>
-      <c r="AQ2">
-        <v>0.0330263209133549</v>
-      </c>
-      <c r="AR2">
-        <v>0.0346857281740339</v>
-      </c>
       <c r="AS2">
-        <v>0.0314674979400094</v>
+        <v>0.0371956665845332</v>
       </c>
       <c r="AT2">
-        <v>0.0211464983286296</v>
+        <v>0.0117978592274427</v>
       </c>
       <c r="AU2">
-        <v>0.0143425587140308</v>
+        <v>0.0195480979645046</v>
       </c>
       <c r="AV2">
-        <v>0.0173751178691323</v>
+        <v>0.0326401920504165</v>
       </c>
       <c r="AW2">
-        <v>0.019522315750866</v>
+        <v>0.0220418315327995</v>
       </c>
       <c r="AX2">
-        <v>0.0122157871528771</v>
+        <v>0.0192157010200485</v>
       </c>
       <c r="AY2">
-        <v>0.017343399506131</v>
+        <v>0.0307640268344182</v>
       </c>
       <c r="AZ2">
-        <v>0.0299535871071363</v>
+        <v>0.0337677242400864</v>
       </c>
       <c r="BA2">
+        <v>0.0291935096755616</v>
+      </c>
+      <c r="BB2">
+        <v>0.0329750871642907</v>
+      </c>
+      <c r="BC2">
+        <v>0.0312339054848371</v>
+      </c>
+      <c r="BD2">
+        <v>0.0313028572868752</v>
+      </c>
+      <c r="BE2">
+        <v>0.0280331623253044</v>
+      </c>
+      <c r="BF2">
+        <v>0.0330925630467639</v>
+      </c>
+      <c r="BG2">
+        <v>0.0342539747939489</v>
+      </c>
+      <c r="BH2">
+        <v>0.0276587526504553</v>
+      </c>
+      <c r="BI2">
+        <v>0.0309082739879118</v>
+      </c>
+      <c r="BJ2">
+        <v>0.029759670213786</v>
+      </c>
+      <c r="BK2">
+        <v>0.0266498918029931</v>
+      </c>
+      <c r="BL2">
         <v>0.0305244596159874</v>
       </c>
-      <c r="BB2">
-        <v>0.033636195921121</v>
-      </c>
-      <c r="BC2">
-        <v>0.0302726333915427</v>
-      </c>
-      <c r="BD2">
-        <v>0.0280190105121303</v>
-      </c>
-      <c r="BE2">
-        <v>0.0248006092322648</v>
-      </c>
-      <c r="BF2">
-        <v>0.0349120712380433</v>
-      </c>
-      <c r="BG2">
-        <v>0.0272910125239834</v>
-      </c>
-      <c r="BH2">
-        <v>0.0288749131545511</v>
-      </c>
-      <c r="BI2">
-        <v>0.0375835668752449</v>
-      </c>
-      <c r="BJ2">
-        <v>0.0386489679610215</v>
-      </c>
-      <c r="BK2">
-        <v>0.0319984715111363</v>
-      </c>
-      <c r="BL2">
-        <v>0.0334171990922681</v>
-      </c>
       <c r="BM2">
-        <v>0.0290624785189655</v>
+        <v>0.0363740122114727</v>
       </c>
       <c r="BN2">
-        <v>0.0296356512038195</v>
+        <v>0.0283635729208023</v>
       </c>
       <c r="BO2">
-        <v>0.0324849965843801</v>
+        <v>0.0372907603569761</v>
       </c>
       <c r="BP2">
-        <v>0.0307601391045772</v>
+        <v>0.0223874107412611</v>
       </c>
       <c r="BQ2">
-        <v>0.0271419682509806</v>
+        <v>0.0249281920219264</v>
       </c>
       <c r="BR2">
-        <v>0.0330210048698322</v>
+        <v>0.0399727014747446</v>
       </c>
       <c r="BS2">
-        <v>0.0446256011558567</v>
+        <v>0.0241611848597043</v>
       </c>
       <c r="BT2">
-        <v>0.0257639869577589</v>
+        <v>0.035038425504652</v>
       </c>
       <c r="BU2">
-        <v>0.0252908762259853</v>
+        <v>0.0305633135126371</v>
       </c>
       <c r="BV2">
-        <v>0.0309288112735326</v>
+        <v>0.0298526689780768</v>
       </c>
       <c r="BW2">
-        <v>0.0281910827223941</v>
+        <v>0.0271991528180963</v>
       </c>
       <c r="BX2">
-        <v>0.0298654115781857</v>
+        <v>0.0295951364052862</v>
       </c>
       <c r="BY2">
-        <v>0.02567599462984</v>
+        <v>0.0339872140459282</v>
       </c>
       <c r="BZ2">
-        <v>0.0199031816573336</v>
+        <v>0.0176258061677663</v>
       </c>
       <c r="CA2">
-        <v>0.0436033632901779</v>
+        <v>0.0246193994499223</v>
       </c>
       <c r="CB2">
-        <v>0.0213003682251409</v>
+        <v>0.0268835596282845</v>
       </c>
       <c r="CC2">
-        <v>0.0165936734607416</v>
+        <v>0.035235128532764</v>
       </c>
       <c r="CD2">
-        <v>0.0421734861595365</v>
+        <v>0.0297497553888942</v>
       </c>
       <c r="CE2">
-        <v>0.0526691322131253</v>
+        <v>0.0207760494415761</v>
       </c>
       <c r="CF2">
-        <v>0.0345621900191523</v>
+        <v>0.029044261741305</v>
       </c>
       <c r="CG2">
-        <v>0.0350913791274261</v>
+        <v>0.0246955060003711</v>
       </c>
       <c r="CH2">
-        <v>0.0296711456698371</v>
+        <v>0.0340709938269573</v>
       </c>
       <c r="CI2">
-        <v>0.0219485017490958</v>
+        <v>0.0263226618486859</v>
       </c>
       <c r="CJ2">
-        <v>0.0181797148588135</v>
+        <v>0.0266200187792735</v>
       </c>
       <c r="CK2">
-        <v>0.0289361942044237</v>
+        <v>0.032224656267359</v>
       </c>
       <c r="CL2">
-        <v>0.0325550568990083</v>
+        <v>0.0219382635221194</v>
       </c>
       <c r="CM2">
-        <v>0.021409985439439</v>
+        <v>0.0290325281943945</v>
       </c>
       <c r="CN2">
-        <v>0.0327058967627416</v>
+        <v>0.0262426311298563</v>
       </c>
       <c r="CO2">
-        <v>0.0191516919667322</v>
+        <v>0.0200756525639516</v>
       </c>
       <c r="CP2">
-        <v>0.0195611445474589</v>
+        <v>0.0267358721186602</v>
       </c>
       <c r="CQ2">
-        <v>0.0159710378046196</v>
+        <v>0.0305039886900059</v>
       </c>
       <c r="CR2">
-        <v>0.0193110675879572</v>
+        <v>0.0212219319293868</v>
       </c>
       <c r="CS2">
-        <v>0.0212219319293868</v>
+        <v>0.0231162662776939</v>
+      </c>
+      <c r="CT2">
+        <v>0.0175651440891513</v>
+      </c>
+      <c r="CU2">
+        <v>0.0223498531310244</v>
+      </c>
+      <c r="CV2">
+        <v>0.0179084413315951</v>
+      </c>
+      <c r="CW2">
+        <v>0.0526361023475614</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.0218252222621094</v>
       </c>
+      <c r="C3">
+        <v>0.0237341598924616</v>
+      </c>
+      <c r="D3">
+        <v>0.0283188097115704</v>
+      </c>
       <c r="E3">
+        <v>0.0306703050257835</v>
+      </c>
+      <c r="F3">
         <v>0.0129190270880447</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.0227570518255702</v>
+      </c>
+      <c r="H3">
         <v>0.0242999549653554</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.0254047146929639</v>
+      </c>
+      <c r="J3">
         <v>0.0155500804159723</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.020031081740979</v>
       </c>
-      <c r="K3">
-        <v>0.0256810263399711</v>
+      <c r="L3">
+        <v>0.0215067572897764</v>
       </c>
       <c r="M3">
         <v>0.0241340802016007</v>
       </c>
       <c r="N3">
+        <v>0.0256810263399711</v>
+      </c>
+      <c r="O3">
+        <v>0.0188126874112172</v>
+      </c>
+      <c r="P3">
         <v>0.0174971403103241</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.0316586777897345</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.0214901873506969</v>
       </c>
       <c r="S3">
-        <v>0.0146055671014828</v>
+        <v>0.0210486410801741</v>
+      </c>
+      <c r="T3">
+        <v>0.0209386248421955</v>
+      </c>
+      <c r="U3">
+        <v>0.0239303717757174</v>
+      </c>
+      <c r="V3">
+        <v>0.0297954338347126</v>
       </c>
       <c r="W3">
         <v>0.0196217164673835</v>
       </c>
+      <c r="X3">
+        <v>0.0206910711860292</v>
+      </c>
       <c r="Y3">
         <v>0.0151612207312811</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.0127417645847603</v>
       </c>
       <c r="AA3">
-        <v>0.0303874510733233</v>
+        <v>0.0233496969721507</v>
       </c>
       <c r="AB3">
-        <v>0.0188240864983794</v>
+        <v>0.0331143864838036</v>
+      </c>
+      <c r="AC3">
+        <v>0.0275887327382956</v>
+      </c>
+      <c r="AD3">
+        <v>0.0178853501555357</v>
+      </c>
+      <c r="AF3">
+        <v>0.0175604675723054</v>
+      </c>
+      <c r="AG3">
+        <v>0.0185669376638003</v>
+      </c>
+      <c r="AH3">
+        <v>0.0272871877111437</v>
+      </c>
+      <c r="AI3">
+        <v>0.0168962309630355</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0148282566740896</v>
+      </c>
+      <c r="AL3">
+        <v>0.0207305059202914</v>
+      </c>
+      <c r="AM3">
+        <v>0.0223529960898697</v>
+      </c>
+      <c r="AN3">
+        <v>0.0183825390107432</v>
+      </c>
+      <c r="AO3">
+        <v>0.0179638872976581</v>
+      </c>
+      <c r="AP3">
+        <v>0.0383623108666526</v>
       </c>
       <c r="AQ3">
-        <v>0.0451452630280342</v>
+        <v>0.038185733150556</v>
       </c>
       <c r="AR3">
-        <v>0.0395236186677213</v>
+        <v>0.0187052201081763</v>
       </c>
       <c r="AS3">
-        <v>0.0395690774635675</v>
+        <v>0.0300920581037903</v>
       </c>
       <c r="AT3">
-        <v>0.0178853501555357</v>
+        <v>0.015860480396967</v>
       </c>
       <c r="AU3">
-        <v>0.0175604675723054</v>
+        <v>0.0297015048832762</v>
+      </c>
+      <c r="AV3">
+        <v>0.0446938205315743</v>
       </c>
       <c r="AX3">
-        <v>0.0168962309630355</v>
+        <v>0.025907757794958</v>
+      </c>
+      <c r="AY3">
+        <v>0.0249650215072723</v>
+      </c>
+      <c r="AZ3">
+        <v>0.0321387767474722</v>
+      </c>
+      <c r="BA3">
+        <v>0.0219097173325316</v>
       </c>
       <c r="BB3">
-        <v>0.0308456512432441</v>
+        <v>0.0329028509785628</v>
       </c>
       <c r="BC3">
-        <v>0.0299956327480727</v>
+        <v>0.0271139001030589</v>
+      </c>
+      <c r="BD3">
+        <v>0.0274974456088482</v>
+      </c>
+      <c r="BE3">
+        <v>0.022431086621166</v>
       </c>
       <c r="BF3">
-        <v>0.0299158699626256</v>
+        <v>0.0282767830830819</v>
+      </c>
+      <c r="BG3">
+        <v>0.035537647127466</v>
+      </c>
+      <c r="BH3">
+        <v>0.0161397678426965</v>
       </c>
       <c r="BI3">
-        <v>0.0416431759562563</v>
+        <v>0.0249094224997597</v>
       </c>
       <c r="BJ3">
-        <v>0.0344547667114603</v>
+        <v>0.0234568330795962</v>
       </c>
       <c r="BK3">
-        <v>0.0331552818834764</v>
+        <v>0.0196325605725267</v>
+      </c>
+      <c r="BM3">
+        <v>0.0303887911693384</v>
+      </c>
+      <c r="BN3">
+        <v>0.0265727175130556</v>
       </c>
       <c r="BO3">
-        <v>0.0255041399587943</v>
+        <v>0.029028949871058</v>
       </c>
       <c r="BP3">
-        <v>0.0309335995323241</v>
+        <v>0.021410695677224</v>
       </c>
       <c r="BQ3">
-        <v>0.0151237456419692</v>
+        <v>0.0269504366571891</v>
       </c>
       <c r="BR3">
-        <v>0.0314657846770152</v>
+        <v>0.0394303871256561</v>
       </c>
       <c r="BS3">
-        <v>0.0451485697033274</v>
+        <v>0.0267814287402763</v>
+      </c>
+      <c r="BT3">
+        <v>0.0320889711536462</v>
       </c>
       <c r="BU3">
-        <v>0.0304373648616737</v>
+        <v>0.0324674189408531</v>
       </c>
       <c r="BV3">
-        <v>0.0304002920764937</v>
+        <v>0.0310646375515357</v>
+      </c>
+      <c r="BW3">
+        <v>0.0312845626987459</v>
+      </c>
+      <c r="BX3">
+        <v>0.0273548974491482</v>
+      </c>
+      <c r="BY3">
+        <v>0.0237107319346368</v>
+      </c>
+      <c r="BZ3">
+        <v>0.0169632553246197</v>
+      </c>
+      <c r="CA3">
+        <v>0.0257139981819672</v>
+      </c>
+      <c r="CB3">
+        <v>0.0257714698924299</v>
+      </c>
+      <c r="CC3">
+        <v>0.0263829412389146</v>
+      </c>
+      <c r="CD3">
+        <v>0.0239169622733771</v>
+      </c>
+      <c r="CE3">
+        <v>0.0202508341348112</v>
+      </c>
+      <c r="CF3">
+        <v>0.0234925715501244</v>
       </c>
       <c r="CG3">
-        <v>0.0280709199986983</v>
+        <v>0.0207677343249</v>
+      </c>
+      <c r="CH3">
+        <v>0.0255294967782809</v>
+      </c>
+      <c r="CI3">
+        <v>0.0223868128029558</v>
       </c>
       <c r="CK3">
-        <v>0.0247354818594929</v>
+        <v>0.0274244227050221</v>
+      </c>
+      <c r="CL3">
+        <v>0.0191124418729328</v>
+      </c>
+      <c r="CM3">
+        <v>0.0224785860456092</v>
       </c>
       <c r="CN3">
-        <v>0.0225246565480003</v>
+        <v>0.0173461122395194</v>
+      </c>
+      <c r="CO3">
+        <v>0.0211799528559416</v>
+      </c>
+      <c r="CP3">
+        <v>0.022911964256497</v>
+      </c>
+      <c r="CQ3">
+        <v>0.0234808176980042</v>
+      </c>
+      <c r="CR3">
+        <v>0.0186561021105229</v>
+      </c>
+      <c r="CS3">
+        <v>0.018195755926436</v>
+      </c>
+      <c r="CT3">
+        <v>0.0210322489632733</v>
+      </c>
+      <c r="CU3">
+        <v>0.0214757981485564</v>
+      </c>
+      <c r="CV3">
+        <v>0.0198960970495092</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.0256836420348172</v>
       </c>
+      <c r="C4">
+        <v>0.0244112050766524</v>
+      </c>
+      <c r="D4">
+        <v>0.0279070276056831</v>
+      </c>
       <c r="E4">
+        <v>0.0329912952447191</v>
+      </c>
+      <c r="F4">
         <v>0.01323516282836</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.0259180527106506</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0.025760084649626</v>
+      </c>
+      <c r="J4">
         <v>0.0167544990503023</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.0229294991587164</v>
       </c>
-      <c r="K4">
-        <v>0.0248208310442713</v>
+      <c r="L4">
+        <v>0.0226650764160841</v>
       </c>
       <c r="M4">
         <v>0.0268513897533614</v>
       </c>
       <c r="N4">
+        <v>0.0248208310442713</v>
+      </c>
+      <c r="O4">
+        <v>0.0212036346428177</v>
+      </c>
+      <c r="P4">
         <v>0.0183253977310141</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.0308392493818766</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.0197527565495367</v>
       </c>
       <c r="S4">
-        <v>0.0176777676080221</v>
+        <v>0.0241063766075777</v>
+      </c>
+      <c r="T4">
+        <v>0.0227659605641017</v>
+      </c>
+      <c r="U4">
+        <v>0.0268681738312476</v>
+      </c>
+      <c r="V4">
+        <v>0.0316689343757409</v>
       </c>
       <c r="W4">
         <v>0.020555492309525</v>
       </c>
+      <c r="X4">
+        <v>0.0230424092723194</v>
+      </c>
       <c r="Y4">
         <v>0.0181301033072109</v>
       </c>
       <c r="Z4">
         <v>0.0141450650654383</v>
       </c>
+      <c r="AA4">
+        <v>0.0233719788189022</v>
+      </c>
       <c r="AB4">
-        <v>0.0181577371009644</v>
+        <v>0.0318971489927244</v>
+      </c>
+      <c r="AC4">
+        <v>0.025980173696526</v>
+      </c>
+      <c r="AD4">
+        <v>0.0155497899378365</v>
+      </c>
+      <c r="AF4">
+        <v>0.0155587974650714</v>
+      </c>
+      <c r="AG4">
+        <v>0.0184733815082447</v>
       </c>
       <c r="AH4">
+        <v>0.0257762358170209</v>
+      </c>
+      <c r="AI4">
+        <v>0.0176867490226341</v>
+      </c>
+      <c r="AJ4">
+        <v>0.0144577387430319</v>
+      </c>
+      <c r="AL4">
+        <v>0.0223873185383881</v>
+      </c>
+      <c r="AM4">
+        <v>0.0241030733121641</v>
+      </c>
+      <c r="AN4">
         <v>0.0196866226985801</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.0164938292988752</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>0.0370180257253538</v>
+      </c>
+      <c r="AQ4">
+        <v>0.0375667713851909</v>
+      </c>
+      <c r="AR4">
         <v>0.0165082834506758</v>
       </c>
-      <c r="AM4">
-        <v>0.0196802254964342</v>
-      </c>
-      <c r="AQ4">
-        <v>0.0427641503784631</v>
-      </c>
-      <c r="AR4">
-        <v>0.0376010952675238</v>
-      </c>
-      <c r="AS4">
-        <v>0.0367579089407449</v>
-      </c>
       <c r="AT4">
-        <v>0.0155497899378365</v>
+        <v>0.0144478398653284</v>
       </c>
       <c r="AU4">
-        <v>0.0155587974650714</v>
-      </c>
-      <c r="AX4">
-        <v>0.0176867490226341</v>
+        <v>0.0294065684016963</v>
+      </c>
+      <c r="AV4">
+        <v>0.0445293897442696</v>
+      </c>
+      <c r="AZ4">
+        <v>0.0335767494340138</v>
+      </c>
+      <c r="BA4">
+        <v>0.0319675769531209</v>
       </c>
       <c r="BB4">
-        <v>0.0319511901143773</v>
+        <v>0.0357456398124304</v>
       </c>
       <c r="BC4">
-        <v>0.0313982762486497</v>
+        <v>0.026338180290808</v>
+      </c>
+      <c r="BD4">
+        <v>0.0279813643930039</v>
+      </c>
+      <c r="BE4">
+        <v>0.0247649059589977</v>
+      </c>
+      <c r="BF4">
+        <v>0.0298224920875832</v>
+      </c>
+      <c r="BG4">
+        <v>0.0352613593488445</v>
+      </c>
+      <c r="BH4">
+        <v>0.0175947042354339</v>
       </c>
       <c r="BI4">
-        <v>0.0380083381315198</v>
+        <v>0.0258287254475893</v>
       </c>
       <c r="BJ4">
-        <v>0.0349654358632235</v>
+        <v>0.0258884178005274</v>
       </c>
       <c r="BK4">
-        <v>0.0355479809151564</v>
+        <v>0.020791842346364</v>
+      </c>
+      <c r="BL4">
+        <v>0.0258152602507927</v>
+      </c>
+      <c r="BM4">
+        <v>0.0300744956767488</v>
+      </c>
+      <c r="BN4">
+        <v>0.0289263302003961</v>
+      </c>
+      <c r="BO4">
+        <v>0.0304611291273851</v>
       </c>
       <c r="BP4">
-        <v>0.0327530076348823</v>
-      </c>
-      <c r="BS4">
-        <v>0.0471155112056541</v>
+        <v>0.0212096093505583</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0290282989527259</v>
+      </c>
+      <c r="BR4">
+        <v>0.0431219631620894</v>
+      </c>
+      <c r="BT4">
+        <v>0.0328167155483792</v>
       </c>
       <c r="BU4">
-        <v>0.0327520968888175</v>
+        <v>0.0336345846292957</v>
       </c>
       <c r="BV4">
-        <v>0.0310140564497878</v>
+        <v>0.0307499175482271</v>
+      </c>
+      <c r="BW4">
+        <v>0.0326942782395184</v>
+      </c>
+      <c r="BX4">
+        <v>0.0288963914307108</v>
+      </c>
+      <c r="BY4">
+        <v>0.025615086607955</v>
+      </c>
+      <c r="BZ4">
+        <v>0.0206264100979464</v>
+      </c>
+      <c r="CA4">
+        <v>0.0275586744103316</v>
+      </c>
+      <c r="CB4">
+        <v>0.0268142141914923</v>
+      </c>
+      <c r="CC4">
+        <v>0.0285074609966118</v>
+      </c>
+      <c r="CD4">
+        <v>0.0256207767229976</v>
+      </c>
+      <c r="CE4">
+        <v>0.0229125945530628</v>
       </c>
       <c r="CF4">
-        <v>0.0247333291414568</v>
+        <v>0.0256183851261794</v>
+      </c>
+      <c r="CG4">
+        <v>0.0248305786624923</v>
       </c>
       <c r="CH4">
-        <v>0.0276510741037866</v>
+        <v>0.0268542280692102</v>
+      </c>
+      <c r="CI4">
+        <v>0.0247576965319881</v>
       </c>
       <c r="CK4">
-        <v>0.0259181767927873</v>
+        <v>0.030889448625632</v>
+      </c>
+      <c r="CL4">
+        <v>0.0190454852013962</v>
+      </c>
+      <c r="CM4">
+        <v>0.0233535992905813</v>
       </c>
       <c r="CN4">
-        <v>0.0244838639859703</v>
+        <v>0.0252385724350877</v>
+      </c>
+      <c r="CO4">
+        <v>0.024407388932769</v>
+      </c>
+      <c r="CP4">
+        <v>0.0263172830492346</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0252733503270245</v>
+      </c>
+      <c r="CR4">
+        <v>0.0202463759807515</v>
+      </c>
+      <c r="CS4">
+        <v>0.0204026067907328</v>
+      </c>
+      <c r="CT4">
+        <v>0.0215300998030919</v>
+      </c>
+      <c r="CU4">
+        <v>0.0191729683208148</v>
+      </c>
+      <c r="CV4">
+        <v>0.022273156261925</v>
+      </c>
+      <c r="CW4">
+        <v>0.0273170693060007</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.0293582871944014</v>
       </c>
+      <c r="C5">
+        <v>0.0210002960356912</v>
+      </c>
       <c r="D5">
+        <v>0.0290570601335085</v>
+      </c>
+      <c r="E5">
         <v>0.0314604899169638</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.0142281011570549</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.0305243060543927</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.0214531633351719</v>
+      </c>
+      <c r="J5">
         <v>0.0223418475283774</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.0236803670552805</v>
       </c>
-      <c r="K5">
-        <v>0.0294982145913449</v>
+      <c r="L5">
+        <v>0.0244497941296516</v>
       </c>
       <c r="M5">
         <v>0.0329812651903477</v>
       </c>
       <c r="N5">
+        <v>0.0294982145913449</v>
+      </c>
+      <c r="O5">
+        <v>0.0292626075259591</v>
+      </c>
+      <c r="P5">
         <v>0.0230504701396047</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.0345322211612595</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.0230257185769226</v>
       </c>
       <c r="S5">
-        <v>0.0223478207144232</v>
+        <v>0.026505950214959</v>
+      </c>
+      <c r="T5">
+        <v>0.0245773209970827</v>
+      </c>
+      <c r="U5">
+        <v>0.0278973177662444</v>
+      </c>
+      <c r="V5">
+        <v>0.0340821162839722</v>
       </c>
       <c r="W5">
         <v>0.0257546189342562</v>
       </c>
+      <c r="X5">
+        <v>0.0248778531971755</v>
+      </c>
       <c r="Y5">
         <v>0.0223142296296701</v>
       </c>
       <c r="Z5">
         <v>0.0185345104434201</v>
       </c>
+      <c r="AA5">
+        <v>0.0225001613923068</v>
+      </c>
       <c r="AB5">
-        <v>0.0157505647008181</v>
+        <v>0.0307762576866771</v>
+      </c>
+      <c r="AC5">
+        <v>0.0256304915098353</v>
+      </c>
+      <c r="AD5">
+        <v>0.0162631433301291</v>
+      </c>
+      <c r="AF5">
+        <v>0.0156480488145323</v>
+      </c>
+      <c r="AG5">
+        <v>0.0207725976709628</v>
+      </c>
+      <c r="AH5">
+        <v>0.0232052274675505</v>
+      </c>
+      <c r="AI5">
+        <v>0.0194299505079247</v>
+      </c>
+      <c r="AJ5">
+        <v>0.016147714461453</v>
+      </c>
+      <c r="AL5">
+        <v>0.0200585000137176</v>
+      </c>
+      <c r="AM5">
+        <v>0.021973514825147</v>
+      </c>
+      <c r="AN5">
+        <v>0.0211975463125529</v>
+      </c>
+      <c r="AO5">
+        <v>0.0166060597829043</v>
+      </c>
+      <c r="AP5">
+        <v>0.0356059168356038</v>
       </c>
       <c r="AQ5">
-        <v>0.0421588084151526</v>
+        <v>0.0407288531808604</v>
       </c>
       <c r="AR5">
-        <v>0.0385022151564999</v>
+        <v>0.0161896315891268</v>
       </c>
       <c r="AS5">
-        <v>0.0415701642721271</v>
+        <v>0.0312022974579318</v>
       </c>
       <c r="AT5">
-        <v>0.0162631433301291</v>
+        <v>0.0140265417361325</v>
       </c>
       <c r="AU5">
-        <v>0.0156480488145323</v>
-      </c>
-      <c r="AX5">
-        <v>0.0194299505079247</v>
+        <v>0.0270841145455615</v>
+      </c>
+      <c r="AV5">
+        <v>0.0434705774454721</v>
+      </c>
+      <c r="AY5">
+        <v>0.0275970604995043</v>
+      </c>
+      <c r="AZ5">
+        <v>0.0336600905774187</v>
+      </c>
+      <c r="BA5">
+        <v>0.0220354995008181</v>
       </c>
       <c r="BB5">
-        <v>0.0293955316798986</v>
+        <v>0.039158951817691</v>
       </c>
       <c r="BC5">
-        <v>0.0272207617217009</v>
+        <v>0.0209144068811845</v>
+      </c>
+      <c r="BD5">
+        <v>0.0269144335266594</v>
       </c>
       <c r="BE5">
-        <v>0.0212682064975847</v>
+        <v>0.023185424973806</v>
+      </c>
+      <c r="BF5">
+        <v>0.0309161402705694</v>
+      </c>
+      <c r="BG5">
+        <v>0.0356467795666543</v>
+      </c>
+      <c r="BH5">
+        <v>0.0176652780836138</v>
       </c>
       <c r="BI5">
-        <v>0.0392885297605195</v>
+        <v>0.0255381119530191</v>
+      </c>
+      <c r="BJ5">
+        <v>0.0250545730692332</v>
       </c>
       <c r="BK5">
-        <v>0.0383945173405988</v>
+        <v>0.0191451950081043</v>
+      </c>
+      <c r="BM5">
+        <v>0.0315430945956645</v>
+      </c>
+      <c r="BN5">
+        <v>0.0280095501157422</v>
+      </c>
+      <c r="BO5">
+        <v>0.0291119633049837</v>
       </c>
       <c r="BP5">
-        <v>0.0269770687098653</v>
-      </c>
-      <c r="BS5">
-        <v>0.0430061547433734</v>
+        <v>0.0190098631377178</v>
+      </c>
+      <c r="BQ5">
+        <v>0.0267337408553277</v>
+      </c>
+      <c r="BR5">
+        <v>0.0403741732508056</v>
+      </c>
+      <c r="BT5">
+        <v>0.0328256502306444</v>
       </c>
       <c r="BU5">
-        <v>0.0279707015165761</v>
+        <v>0.0281039224597628</v>
       </c>
       <c r="BV5">
-        <v>0.0312766586898787</v>
+        <v>0.0302632460138532</v>
+      </c>
+      <c r="BW5">
+        <v>0.0263400915781845</v>
+      </c>
+      <c r="BX5">
+        <v>0.0280656203782935</v>
+      </c>
+      <c r="BY5">
+        <v>0.0230571572268834</v>
       </c>
       <c r="BZ5">
-        <v>0.0208706260301229</v>
+        <v>0.0185736834144021</v>
+      </c>
+      <c r="CA5">
+        <v>0.0259492274045787</v>
+      </c>
+      <c r="CB5">
+        <v>0.0261141668434698</v>
       </c>
       <c r="CC5">
-        <v>0.0164700155946956</v>
+        <v>0.0251008004129703</v>
+      </c>
+      <c r="CD5">
+        <v>0.0246666745139899</v>
+      </c>
+      <c r="CE5">
+        <v>0.0239755294352833</v>
+      </c>
+      <c r="CF5">
+        <v>0.0212174889826156</v>
+      </c>
+      <c r="CG5">
+        <v>0.0239227976922531</v>
       </c>
       <c r="CH5">
-        <v>0.0269344076436298</v>
+        <v>0.0275180976311628</v>
+      </c>
+      <c r="CI5">
+        <v>0.0223491235840748</v>
       </c>
       <c r="CK5">
-        <v>0.025007579434279</v>
+        <v>0.0270210564289908</v>
+      </c>
+      <c r="CL5">
+        <v>0.0200184557939815</v>
+      </c>
+      <c r="CM5">
+        <v>0.0236379498192747</v>
+      </c>
+      <c r="CN5">
+        <v>0.0209024215097352</v>
+      </c>
+      <c r="CO5">
+        <v>0.0237982157740496</v>
       </c>
       <c r="CP5">
-        <v>0.021462340296731</v>
+        <v>0.0228485897296863</v>
+      </c>
+      <c r="CQ5">
+        <v>0.0218928084372663</v>
+      </c>
+      <c r="CR5">
+        <v>0.0213288096298708</v>
       </c>
       <c r="CS5">
-        <v>0.0213288096298708</v>
+        <v>0.0190733673124131</v>
+      </c>
+      <c r="CT5">
+        <v>0.0232248496892119</v>
+      </c>
+      <c r="CU5">
+        <v>0.0233755576049935</v>
+      </c>
+      <c r="CV5">
+        <v>0.021422843332866</v>
+      </c>
+      <c r="CW5">
+        <v>0.0259298475997909</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.025386348601109</v>
       </c>
+      <c r="C6">
+        <v>0.0201218820855768</v>
+      </c>
+      <c r="D6">
+        <v>0.0270735817416149</v>
+      </c>
       <c r="E6">
+        <v>0.0332585747347904</v>
+      </c>
+      <c r="F6">
         <v>0.0131407684013681</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.0266009847699853</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.0252895519729745</v>
+      </c>
+      <c r="J6">
         <v>0.0208210040712789</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.0259687906721383</v>
       </c>
-      <c r="K6">
-        <v>0.0279851332252872</v>
+      <c r="L6">
+        <v>0.0238487863261868</v>
       </c>
       <c r="M6">
         <v>0.0318519377562978</v>
       </c>
       <c r="N6">
+        <v>0.0279851332252872</v>
+      </c>
+      <c r="O6">
+        <v>0.0278362381778747</v>
+      </c>
+      <c r="P6">
         <v>0.023701262562645</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0.0319438274060239</v>
+      </c>
+      <c r="R6">
         <v>0.0194688329522914</v>
       </c>
       <c r="S6">
-        <v>0.0197758722064824</v>
+        <v>0.0256206333404546</v>
+      </c>
+      <c r="T6">
+        <v>0.0245862582693665</v>
+      </c>
+      <c r="U6">
+        <v>0.0280686488604952</v>
+      </c>
+      <c r="V6">
+        <v>0.0367708261895121</v>
       </c>
       <c r="W6">
         <v>0.0252949921445194</v>
       </c>
+      <c r="X6">
+        <v>0.0273063769395945</v>
+      </c>
       <c r="Y6">
         <v>0.0186728493121304</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>0.0172417858539185</v>
       </c>
       <c r="AA6">
-        <v>0.0249307387564521</v>
+        <v>0.0218690357038017</v>
       </c>
       <c r="AB6">
-        <v>0.0129645352941887</v>
+        <v>0.0302925274488818</v>
+      </c>
+      <c r="AC6">
+        <v>0.0242134149434249</v>
+      </c>
+      <c r="AD6">
+        <v>0.0178875885863072</v>
+      </c>
+      <c r="AF6">
+        <v>0.0195328314454434</v>
+      </c>
+      <c r="AG6">
+        <v>0.0191622151963334</v>
+      </c>
+      <c r="AH6">
+        <v>0.0230658325922645</v>
+      </c>
+      <c r="AI6">
+        <v>0.0265825425760793</v>
+      </c>
+      <c r="AJ6">
+        <v>0.0206278967115042</v>
+      </c>
+      <c r="AK6">
+        <v>0.0241232477418107</v>
+      </c>
+      <c r="AL6">
+        <v>0.0210343277573988</v>
+      </c>
+      <c r="AM6">
+        <v>0.0232115633555409</v>
+      </c>
+      <c r="AN6">
+        <v>0.0188904959194031</v>
+      </c>
+      <c r="AO6">
+        <v>0.0187811527491216</v>
+      </c>
+      <c r="AP6">
+        <v>0.0311100283633774</v>
       </c>
       <c r="AQ6">
-        <v>0.0426464645999969</v>
+        <v>0.0388587033925253</v>
       </c>
       <c r="AR6">
-        <v>0.0340292958386662</v>
+        <v>0.0192551783715602</v>
       </c>
       <c r="AS6">
-        <v>0.0385126185311074</v>
+        <v>0.0302766386975873</v>
       </c>
       <c r="AT6">
-        <v>0.0178875885863072</v>
+        <v>0.0131468935659891</v>
       </c>
       <c r="AU6">
-        <v>0.0195328314454434</v>
+        <v>0.0276100272371135</v>
+      </c>
+      <c r="AV6">
+        <v>0.0407406042233607</v>
+      </c>
+      <c r="AW6">
+        <v>0.0234208405163268</v>
       </c>
       <c r="AX6">
-        <v>0.0265825425760793</v>
+        <v>0.0247529114936314</v>
+      </c>
+      <c r="AY6">
+        <v>0.0269277480038833</v>
       </c>
       <c r="AZ6">
-        <v>0.0261637299800184</v>
+        <v>0.0348681364488685</v>
+      </c>
+      <c r="BA6">
+        <v>0.0313256393509742</v>
       </c>
       <c r="BB6">
-        <v>0.0372693897625139</v>
+        <v>0.0373646810884297</v>
+      </c>
+      <c r="BC6">
+        <v>0.0250503725700983</v>
+      </c>
+      <c r="BD6">
+        <v>0.0241012860906315</v>
       </c>
       <c r="BE6">
-        <v>0.0212256958537318</v>
+        <v>0.0214301464496823</v>
+      </c>
+      <c r="BF6">
+        <v>0.0345291453755517</v>
+      </c>
+      <c r="BG6">
+        <v>0.0350560158198149</v>
+      </c>
+      <c r="BH6">
+        <v>0.019090906937185</v>
       </c>
       <c r="BI6">
-        <v>0.0386809365390102</v>
+        <v>0.0264109787683627</v>
       </c>
       <c r="BJ6">
-        <v>0.032009212819653</v>
+        <v>0.0279944981396447</v>
       </c>
       <c r="BK6">
-        <v>0.0365373121073755</v>
+        <v>0.0201267782473808</v>
+      </c>
+      <c r="BL6">
+        <v>0.0245861447177092</v>
+      </c>
+      <c r="BM6">
+        <v>0.0291686242017432</v>
+      </c>
+      <c r="BN6">
+        <v>0.0274742288577051</v>
+      </c>
+      <c r="BO6">
+        <v>0.0355266932387498</v>
       </c>
       <c r="BP6">
-        <v>0.0325242856464822</v>
+        <v>0.0222621962865018</v>
+      </c>
+      <c r="BQ6">
+        <v>0.0297662418321829</v>
       </c>
       <c r="BR6">
-        <v>0.0298329228436892</v>
+        <v>0.0401345173560988</v>
       </c>
       <c r="BS6">
-        <v>0.0437314042745458</v>
+        <v>0.0281771810676059</v>
+      </c>
+      <c r="BT6">
+        <v>0.0367532812853949</v>
       </c>
       <c r="BU6">
-        <v>0.0329337592338798</v>
+        <v>0.0337128036476238</v>
       </c>
       <c r="BV6">
-        <v>0.035847548573073</v>
+        <v>0.0296972269179033</v>
+      </c>
+      <c r="BW6">
+        <v>0.0311407549859912</v>
+      </c>
+      <c r="BX6">
+        <v>0.0286346639071008</v>
+      </c>
+      <c r="BY6">
+        <v>0.0270339993362129</v>
       </c>
       <c r="BZ6">
-        <v>0.0217718958522256</v>
+        <v>0.018432914856156</v>
       </c>
       <c r="CA6">
-        <v>0.0239567062108466</v>
+        <v>0.0269413183501134</v>
+      </c>
+      <c r="CB6">
+        <v>0.0250035010125894</v>
       </c>
       <c r="CC6">
-        <v>0.0205184678051231</v>
+        <v>0.030846461783869</v>
+      </c>
+      <c r="CD6">
+        <v>0.0261011907861138</v>
+      </c>
+      <c r="CE6">
+        <v>0.0232000953957297</v>
       </c>
       <c r="CF6">
-        <v>0.0273160103563624</v>
+        <v>0.0240152436328943</v>
       </c>
       <c r="CG6">
-        <v>0.029995275211792</v>
+        <v>0.019670648394225</v>
       </c>
       <c r="CH6">
-        <v>0.0269415657642872</v>
+        <v>0.0303213171089317</v>
+      </c>
+      <c r="CI6">
+        <v>0.0231643085457413</v>
       </c>
       <c r="CK6">
-        <v>0.0242596747848667</v>
+        <v>0.0284838825457429</v>
+      </c>
+      <c r="CL6">
+        <v>0.0218020798853656</v>
+      </c>
+      <c r="CM6">
+        <v>0.0232204150932484</v>
       </c>
       <c r="CN6">
-        <v>0.0246299803422468</v>
+        <v>0.0249157730596512</v>
+      </c>
+      <c r="CO6">
+        <v>0.0241050495825851</v>
       </c>
       <c r="CP6">
-        <v>0.0209538586787307</v>
+        <v>0.0209793823530102</v>
+      </c>
+      <c r="CQ6">
+        <v>0.0228133418116417</v>
       </c>
       <c r="CR6">
-        <v>0.0250349957706465</v>
+        <v>0.0201684372679367</v>
       </c>
       <c r="CS6">
-        <v>0.0201684372679367</v>
+        <v>0.0212923394982569</v>
+      </c>
+      <c r="CT6">
+        <v>0.023710847936985</v>
+      </c>
+      <c r="CU6">
+        <v>0.0262217136468394</v>
+      </c>
+      <c r="CV6">
+        <v>0.0203636735350957</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.0302789628759611</v>
       </c>
+      <c r="C7">
+        <v>0.0241768637948065</v>
+      </c>
+      <c r="D7">
+        <v>0.031635152807343</v>
+      </c>
       <c r="E7">
+        <v>0.035877087653408</v>
+      </c>
+      <c r="F7">
         <v>0.0145926027781689</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.0334542463832419</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>0.0259552424571492</v>
+      </c>
+      <c r="J7">
         <v>0.024852841868825</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.0292995450223551</v>
       </c>
-      <c r="K7">
-        <v>0.0343954434535606</v>
+      <c r="L7">
+        <v>0.0274223758467184</v>
       </c>
       <c r="M7">
         <v>0.0347504997477287</v>
       </c>
       <c r="N7">
+        <v>0.0343954434535606</v>
+      </c>
+      <c r="O7">
+        <v>0.0296234678156915</v>
+      </c>
+      <c r="P7">
         <v>0.0255821891677276</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.0374751131560428</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.024806325032215</v>
       </c>
       <c r="S7">
-        <v>0.0219453782019716</v>
+        <v>0.0238893178381645</v>
+      </c>
+      <c r="T7">
+        <v>0.0240393416079765</v>
+      </c>
+      <c r="U7">
+        <v>0.0280447694994754</v>
+      </c>
+      <c r="V7">
+        <v>0.0321049280019221</v>
       </c>
       <c r="W7">
         <v>0.0280512134571954</v>
       </c>
+      <c r="X7">
+        <v>0.0265574575380818</v>
+      </c>
       <c r="Y7">
         <v>0.0233762793263346</v>
       </c>
       <c r="Z7">
         <v>0.0182022276753893</v>
       </c>
+      <c r="AA7">
+        <v>0.021729356732138</v>
+      </c>
       <c r="AB7">
-        <v>0.0142778316027261</v>
+        <v>0.0303922628597961</v>
+      </c>
+      <c r="AC7">
+        <v>0.0261874599176583</v>
+      </c>
+      <c r="AD7">
+        <v>0.0179450518268457</v>
+      </c>
+      <c r="AE7">
+        <v>0.017081352624211</v>
+      </c>
+      <c r="AF7">
+        <v>0.0185397681413562</v>
+      </c>
+      <c r="AG7">
+        <v>0.0187392749911716</v>
+      </c>
+      <c r="AH7">
+        <v>0.0259370312958369</v>
+      </c>
+      <c r="AI7">
+        <v>0.0179547129925418</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0155785396168995</v>
       </c>
       <c r="AK7">
+        <v>0.0236692956486983</v>
+      </c>
+      <c r="AL7">
+        <v>0.0197295767007646</v>
+      </c>
+      <c r="AM7">
+        <v>0.0244280430743537</v>
+      </c>
+      <c r="AN7">
+        <v>0.0221773490511271</v>
+      </c>
+      <c r="AO7">
+        <v>0.0192320401731641</v>
+      </c>
+      <c r="AP7">
+        <v>0.0317203688797118</v>
+      </c>
+      <c r="AQ7">
+        <v>0.0379522688492982</v>
+      </c>
+      <c r="AR7">
         <v>0.0156286726768858</v>
       </c>
-      <c r="AQ7">
-        <v>0.0399620946830523</v>
-      </c>
-      <c r="AR7">
-        <v>0.038403919093263</v>
-      </c>
       <c r="AS7">
-        <v>0.0366477188919744</v>
+        <v>0.0336234660029976</v>
       </c>
       <c r="AT7">
-        <v>0.0179450518268457</v>
+        <v>0.0129477400510166</v>
       </c>
       <c r="AU7">
-        <v>0.0185397681413562</v>
+        <v>0.0285541357605631</v>
+      </c>
+      <c r="AV7">
+        <v>0.0394764946508962</v>
+      </c>
+      <c r="AW7">
+        <v>0.0243438065077391</v>
       </c>
       <c r="AX7">
-        <v>0.0179547129925418</v>
+        <v>0.0271034273442424</v>
+      </c>
+      <c r="AY7">
+        <v>0.0297065304180177</v>
+      </c>
+      <c r="AZ7">
+        <v>0.0347836745433748</v>
+      </c>
+      <c r="BA7">
+        <v>0.0238321018911423</v>
       </c>
       <c r="BB7">
-        <v>0.0320296778771598</v>
+        <v>0.0440007190378855</v>
       </c>
       <c r="BC7">
-        <v>0.0249569151058637</v>
+        <v>0.0274830959408763</v>
+      </c>
+      <c r="BD7">
+        <v>0.0304543648130551</v>
+      </c>
+      <c r="BE7">
+        <v>0.0260614271231108</v>
+      </c>
+      <c r="BF7">
+        <v>0.0335571796871939</v>
+      </c>
+      <c r="BG7">
+        <v>0.0405427192652546</v>
+      </c>
+      <c r="BH7">
+        <v>0.0233436072617008</v>
       </c>
       <c r="BI7">
-        <v>0.0424059544092782</v>
+        <v>0.0315100065412728</v>
       </c>
       <c r="BJ7">
-        <v>0.0324727188834697</v>
+        <v>0.0282537771201319</v>
       </c>
       <c r="BK7">
-        <v>0.0421834692704701</v>
+        <v>0.0232326518967729</v>
+      </c>
+      <c r="BL7">
+        <v>0.0238692206357367</v>
+      </c>
+      <c r="BM7">
+        <v>0.0283593138388201</v>
+      </c>
+      <c r="BN7">
+        <v>0.0299277607579938</v>
+      </c>
+      <c r="BO7">
+        <v>0.0318521219477541</v>
       </c>
       <c r="BP7">
-        <v>0.0288475605787078</v>
+        <v>0.0279636601383147</v>
+      </c>
+      <c r="BQ7">
+        <v>0.0255764229817548</v>
       </c>
       <c r="BR7">
-        <v>0.0293129024347056</v>
-      </c>
-      <c r="BS7">
-        <v>0.0430844806852348</v>
+        <v>0.0367497487205744</v>
+      </c>
+      <c r="BT7">
+        <v>0.0301756961514201</v>
       </c>
       <c r="BU7">
-        <v>0.0287870759934052</v>
+        <v>0.0262012928468339</v>
       </c>
       <c r="BV7">
-        <v>0.0303480290497067</v>
+        <v>0.035369499236411</v>
+      </c>
+      <c r="BW7">
+        <v>0.0263465110747433</v>
+      </c>
+      <c r="BX7">
+        <v>0.0310433458008602</v>
+      </c>
+      <c r="BY7">
+        <v>0.0300777934478053</v>
+      </c>
+      <c r="BZ7">
+        <v>0.0184431795756153</v>
+      </c>
+      <c r="CA7">
+        <v>0.0259671531306334</v>
+      </c>
+      <c r="CB7">
+        <v>0.0293014593467809</v>
+      </c>
+      <c r="CC7">
+        <v>0.0287113954709022</v>
+      </c>
+      <c r="CD7">
+        <v>0.0294095802039222</v>
+      </c>
+      <c r="CE7">
+        <v>0.0222737010974185</v>
       </c>
       <c r="CF7">
-        <v>0.0305743053929363</v>
+        <v>0.0286792430242938</v>
       </c>
       <c r="CG7">
-        <v>0.0327712305475036</v>
+        <v>0.0236877336415621</v>
       </c>
       <c r="CH7">
-        <v>0.0303596187062249</v>
+        <v>0.0305975530524271</v>
+      </c>
+      <c r="CI7">
+        <v>0.0262793645727592</v>
+      </c>
+      <c r="CK7">
+        <v>0.0310773321031705</v>
+      </c>
+      <c r="CL7">
+        <v>0.0258449971371288</v>
+      </c>
+      <c r="CM7">
+        <v>0.0265987572737318</v>
+      </c>
+      <c r="CN7">
+        <v>0.0202518402963552</v>
+      </c>
+      <c r="CO7">
+        <v>0.0260364125949175</v>
+      </c>
+      <c r="CP7">
+        <v>0.0287349746343645</v>
+      </c>
+      <c r="CQ7">
+        <v>0.029013794158656</v>
+      </c>
+      <c r="CR7">
+        <v>0.0259753781125392</v>
+      </c>
+      <c r="CS7">
+        <v>0.0226829747288847</v>
+      </c>
+      <c r="CT7">
+        <v>0.0234556759451951</v>
+      </c>
+      <c r="CU7">
+        <v>0.0264523368062619</v>
+      </c>
+      <c r="CV7">
+        <v>0.0266923300913108</v>
       </c>
     </row>
   </sheetData>
